--- a/survey lung cancer2..xlsx
+++ b/survey lung cancer2..xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,20 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -65,9 +52,6 @@
     <t>WHEEZING</t>
   </si>
   <si>
-    <t>ALCOHOL_CONSUMING</t>
-  </si>
-  <si>
     <t>COUGHING</t>
   </si>
   <si>
@@ -83,20 +67,23 @@
     <t>LUNG_CANCER</t>
   </si>
   <si>
-    <t>WHERE YES MEANS 1 AND NO MEANS 0 IN COLUMN Q</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>ALCOHOL_CONSUMING</t>
+  </si>
+  <si>
+    <t>WHERE YES MEANS 1 AND NO MEANS 0 IN COLUMN Q</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,10 +166,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -529,16 +516,16 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" customWidth="1"/>
     <col min="18" max="18" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.5" customHeight="1">
+    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -571,34 +558,34 @@
         <v>9</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="R1" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>69</v>
@@ -647,12 +634,12 @@
       </c>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>74</v>
@@ -701,12 +688,12 @@
       </c>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>59</v>
@@ -754,12 +741,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>63</v>
@@ -807,12 +794,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>63</v>
@@ -860,12 +847,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>75</v>
@@ -913,12 +900,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>52</v>
@@ -966,12 +953,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>51</v>
@@ -1019,12 +1006,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>68</v>
@@ -1072,12 +1059,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>53</v>
@@ -1125,12 +1112,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>61</v>
@@ -1178,12 +1165,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>72</v>
@@ -1231,12 +1218,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>60</v>
@@ -1284,12 +1271,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>58</v>
@@ -1337,12 +1324,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>69</v>
@@ -1390,12 +1377,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>48</v>
@@ -1443,12 +1430,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>75</v>
@@ -1496,12 +1483,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>57</v>
@@ -1549,12 +1536,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>68</v>
@@ -1602,12 +1589,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>61</v>
@@ -1655,12 +1642,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>44</v>
@@ -1708,12 +1695,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>64</v>
@@ -1761,12 +1748,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <v>21</v>
@@ -1814,12 +1801,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>60</v>
@@ -1867,12 +1854,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>72</v>
@@ -1920,12 +1907,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>65</v>
@@ -1973,12 +1960,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>61</v>
@@ -2026,12 +2013,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>69</v>
@@ -2079,12 +2066,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>53</v>
@@ -2132,12 +2119,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>55</v>
@@ -2185,12 +2172,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C32">
         <v>57</v>
@@ -2238,12 +2225,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>62</v>
@@ -2291,12 +2278,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34">
         <v>56</v>
@@ -2344,12 +2331,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35">
         <v>67</v>
@@ -2397,12 +2384,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>59</v>
@@ -2450,12 +2437,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C37">
         <v>59</v>
@@ -2503,12 +2490,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>60</v>
@@ -2556,12 +2543,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C39">
         <v>56</v>
@@ -2609,12 +2596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>56</v>
@@ -2662,12 +2649,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C41">
         <v>60</v>
@@ -2715,12 +2702,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C42">
         <v>68</v>
@@ -2768,12 +2755,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C43">
         <v>63</v>
@@ -2821,12 +2808,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C44">
         <v>77</v>
@@ -2874,12 +2861,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C45">
         <v>52</v>
@@ -2927,12 +2914,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C46">
         <v>70</v>
@@ -2980,12 +2967,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <v>72</v>
@@ -3033,12 +3020,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <v>62</v>
@@ -3086,12 +3073,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C49">
         <v>64</v>
@@ -3139,12 +3126,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C50">
         <v>70</v>
@@ -3192,12 +3179,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C51">
         <v>60</v>
@@ -3245,12 +3232,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C52">
         <v>56</v>
@@ -3298,12 +3285,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C53">
         <v>63</v>
@@ -3351,12 +3338,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C54">
         <v>54</v>
@@ -3404,12 +3391,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C55">
         <v>49</v>
@@ -3457,12 +3444,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C56">
         <v>57</v>
@@ -3510,12 +3497,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C57">
         <v>52</v>
@@ -3563,12 +3550,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C58">
         <v>63</v>
@@ -3616,12 +3603,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C59">
         <v>73</v>
@@ -3669,12 +3656,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C60">
         <v>47</v>
@@ -3722,12 +3709,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C61">
         <v>69</v>
@@ -3775,12 +3762,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C62">
         <v>70</v>
@@ -3828,12 +3815,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C63">
         <v>60</v>
@@ -3881,12 +3868,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C64">
         <v>70</v>
@@ -3934,12 +3921,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C65">
         <v>68</v>
@@ -3987,12 +3974,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C66">
         <v>74</v>
@@ -4040,12 +4027,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C67">
         <v>71</v>
@@ -4093,12 +4080,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C68">
         <v>56</v>
@@ -4146,12 +4133,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C69">
         <v>66</v>
@@ -4199,12 +4186,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C70">
         <v>76</v>
@@ -4252,12 +4239,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C71">
         <v>78</v>
@@ -4305,12 +4292,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C72">
         <v>68</v>
@@ -4358,12 +4345,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C73">
         <v>66</v>
@@ -4411,12 +4398,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C74">
         <v>67</v>
@@ -4464,12 +4451,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C75">
         <v>60</v>
@@ -4517,12 +4504,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C76">
         <v>61</v>
@@ -4570,12 +4557,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C77">
         <v>58</v>
@@ -4623,12 +4610,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C78">
         <v>76</v>
@@ -4676,12 +4663,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C79">
         <v>56</v>
@@ -4729,12 +4716,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C80">
         <v>67</v>
@@ -4782,12 +4769,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C81">
         <v>73</v>
@@ -4835,12 +4822,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C82">
         <v>58</v>
@@ -4888,12 +4875,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C83">
         <v>54</v>
@@ -4941,12 +4928,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C84">
         <v>62</v>
@@ -4994,12 +4981,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C85">
         <v>81</v>
@@ -5047,12 +5034,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C86">
         <v>56</v>
@@ -5100,12 +5087,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C87">
         <v>60</v>
@@ -5153,12 +5140,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C88">
         <v>66</v>
@@ -5206,12 +5193,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C89">
         <v>62</v>
@@ -5259,12 +5246,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C90">
         <v>62</v>
@@ -5312,12 +5299,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C91">
         <v>55</v>
@@ -5365,12 +5352,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C92">
         <v>62</v>
@@ -5418,12 +5405,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C93">
         <v>71</v>
@@ -5471,12 +5458,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C94">
         <v>52</v>
@@ -5524,12 +5511,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C95">
         <v>59</v>
@@ -5577,12 +5564,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C96">
         <v>48</v>
@@ -5630,12 +5617,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C97">
         <v>60</v>
@@ -5683,12 +5670,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C98">
         <v>61</v>
@@ -5736,12 +5723,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C99">
         <v>59</v>
@@ -5789,12 +5776,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C100">
         <v>64</v>
@@ -5842,12 +5829,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C101">
         <v>56</v>
@@ -5895,12 +5882,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C102">
         <v>58</v>
@@ -5948,12 +5935,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C103">
         <v>81</v>
@@ -6001,12 +5988,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C104">
         <v>64</v>
@@ -6054,12 +6041,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C105">
         <v>62</v>
@@ -6107,12 +6094,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C106">
         <v>72</v>
@@ -6160,12 +6147,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C107">
         <v>60</v>
@@ -6213,12 +6200,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C108">
         <v>61</v>
@@ -6266,12 +6253,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C109">
         <v>60</v>
@@ -6319,12 +6306,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C110">
         <v>49</v>
@@ -6372,12 +6359,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C111">
         <v>53</v>
@@ -6425,12 +6412,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C112">
         <v>58</v>
@@ -6478,12 +6465,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C113">
         <v>61</v>
@@ -6531,12 +6518,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C114">
         <v>68</v>
@@ -6584,12 +6571,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C115">
         <v>60</v>
@@ -6637,12 +6624,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C116">
         <v>72</v>
@@ -6690,12 +6677,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C117">
         <v>72</v>
@@ -6743,12 +6730,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C118">
         <v>57</v>
@@ -6796,12 +6783,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C119">
         <v>51</v>
@@ -6849,12 +6836,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C120">
         <v>54</v>
@@ -6902,12 +6889,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C121">
         <v>56</v>
@@ -6955,12 +6942,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C122">
         <v>77</v>
@@ -7008,12 +6995,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C123">
         <v>64</v>
@@ -7061,12 +7048,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C124">
         <v>57</v>
@@ -7114,12 +7101,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C125">
         <v>66</v>
@@ -7167,12 +7154,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C126">
         <v>70</v>
@@ -7220,12 +7207,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C127">
         <v>53</v>
@@ -7273,12 +7260,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C128">
         <v>51</v>
@@ -7326,12 +7313,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C129">
         <v>58</v>
@@ -7379,12 +7366,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C130">
         <v>58</v>
@@ -7432,12 +7419,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C131">
         <v>63</v>
@@ -7485,12 +7472,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C132">
         <v>51</v>
@@ -7538,12 +7525,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C133">
         <v>61</v>
@@ -7591,12 +7578,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C134">
         <v>61</v>
@@ -7644,12 +7631,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C135">
         <v>76</v>
@@ -7697,12 +7684,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C136">
         <v>71</v>
@@ -7750,12 +7737,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C137">
         <v>69</v>
@@ -7803,12 +7790,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C138">
         <v>56</v>
@@ -7856,12 +7843,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C139">
         <v>67</v>
@@ -7909,12 +7896,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C140">
         <v>54</v>
@@ -7962,12 +7949,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C141">
         <v>63</v>
@@ -8015,12 +8002,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C142">
         <v>47</v>
@@ -8068,12 +8055,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C143">
         <v>62</v>
@@ -8121,12 +8108,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C144">
         <v>65</v>
@@ -8174,12 +8161,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C145">
         <v>63</v>
@@ -8227,12 +8214,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C146">
         <v>64</v>
@@ -8280,12 +8267,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C147">
         <v>65</v>
@@ -8333,12 +8320,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C148">
         <v>51</v>
@@ -8386,12 +8373,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C149">
         <v>56</v>
@@ -8439,12 +8426,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C150">
         <v>70</v>
@@ -8492,12 +8479,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C151">
         <v>58</v>
@@ -8545,12 +8532,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C152">
         <v>67</v>
@@ -8598,12 +8585,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C153">
         <v>62</v>
@@ -8651,12 +8638,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C154">
         <v>74</v>
@@ -8704,12 +8691,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C155">
         <v>69</v>
@@ -8757,12 +8744,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C156">
         <v>64</v>
@@ -8810,12 +8797,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C157">
         <v>75</v>
@@ -8863,12 +8850,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C158">
         <v>47</v>
@@ -8916,12 +8903,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C159">
         <v>57</v>
@@ -8969,12 +8956,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C160">
         <v>56</v>
@@ -9022,12 +9009,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C161">
         <v>68</v>
@@ -9075,12 +9062,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C162">
         <v>55</v>
@@ -9128,12 +9115,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C163">
         <v>62</v>
@@ -9181,12 +9168,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C164">
         <v>73</v>
@@ -9234,12 +9221,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C165">
         <v>68</v>
@@ -9287,12 +9274,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C166">
         <v>75</v>
@@ -9340,12 +9327,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C167">
         <v>63</v>
@@ -9393,12 +9380,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C168">
         <v>61</v>
@@ -9446,12 +9433,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C169">
         <v>62</v>
@@ -9499,12 +9486,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C170">
         <v>44</v>
@@ -9552,12 +9539,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C171">
         <v>56</v>
@@ -9605,12 +9592,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C172">
         <v>54</v>
@@ -9658,12 +9645,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C173">
         <v>57</v>
@@ -9711,12 +9698,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C174">
         <v>56</v>
@@ -9764,12 +9751,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C175">
         <v>69</v>
@@ -9817,12 +9804,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C176">
         <v>72</v>
@@ -9870,12 +9857,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C177">
         <v>59</v>
@@ -9923,12 +9910,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C178">
         <v>70</v>
@@ -9976,12 +9963,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C179">
         <v>64</v>
@@ -10029,12 +10016,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C180">
         <v>61</v>
@@ -10082,12 +10069,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C181">
         <v>72</v>
@@ -10135,12 +10122,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C182">
         <v>63</v>
@@ -10188,12 +10175,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C183">
         <v>74</v>
@@ -10241,12 +10228,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C184">
         <v>71</v>
@@ -10294,12 +10281,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C185">
         <v>71</v>
@@ -10347,12 +10334,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C186">
         <v>72</v>
@@ -10400,12 +10387,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C187">
         <v>77</v>
@@ -10453,12 +10440,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C188">
         <v>72</v>
@@ -10506,12 +10493,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C189">
         <v>55</v>
@@ -10559,12 +10546,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C190">
         <v>65</v>
@@ -10612,12 +10599,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C191">
         <v>67</v>
@@ -10665,12 +10652,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C192">
         <v>69</v>
@@ -10718,12 +10705,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C193">
         <v>55</v>
@@ -10771,12 +10758,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C194">
         <v>51</v>
@@ -10824,12 +10811,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C195">
         <v>64</v>
@@ -10877,12 +10864,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C196">
         <v>63</v>
@@ -10930,12 +10917,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C197">
         <v>69</v>
@@ -10983,12 +10970,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C198">
         <v>64</v>
@@ -11036,12 +11023,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C199">
         <v>59</v>
@@ -11089,12 +11076,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C200">
         <v>73</v>
@@ -11142,12 +11129,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C201">
         <v>55</v>
@@ -11195,12 +11182,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C202">
         <v>63</v>
@@ -11248,12 +11235,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C203">
         <v>60</v>
@@ -11301,12 +11288,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C204">
         <v>74</v>
@@ -11354,12 +11341,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C205">
         <v>65</v>
@@ -11407,12 +11394,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C206">
         <v>79</v>
@@ -11460,12 +11447,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C207">
         <v>62</v>
@@ -11513,12 +11500,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C208">
         <v>71</v>
@@ -11566,12 +11553,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C209">
         <v>63</v>
@@ -11619,12 +11606,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C210">
         <v>67</v>
@@ -11672,12 +11659,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C211">
         <v>55</v>
@@ -11725,12 +11712,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C212">
         <v>54</v>
@@ -11778,12 +11765,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C213">
         <v>77</v>
@@ -11831,12 +11818,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C214">
         <v>58</v>
@@ -11884,12 +11871,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C215">
         <v>64</v>
@@ -11937,12 +11924,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C216">
         <v>61</v>
@@ -11990,12 +11977,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C217">
         <v>62</v>
@@ -12043,12 +12030,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C218">
         <v>67</v>
@@ -12096,12 +12083,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C219">
         <v>56</v>
@@ -12149,12 +12136,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C220">
         <v>70</v>
@@ -12202,12 +12189,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:17">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C221">
         <v>70</v>
@@ -12255,12 +12242,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:17">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C222">
         <v>57</v>
@@ -12308,12 +12295,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:17">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C223">
         <v>61</v>
@@ -12361,12 +12348,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:17">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C224">
         <v>77</v>
@@ -12414,12 +12401,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C225">
         <v>63</v>
@@ -12467,12 +12454,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C226">
         <v>62</v>
@@ -12520,12 +12507,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C227">
         <v>59</v>
@@ -12573,12 +12560,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C228">
         <v>70</v>
@@ -12626,12 +12613,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C229">
         <v>71</v>
@@ -12679,12 +12666,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C230">
         <v>56</v>
@@ -12732,12 +12719,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C231">
         <v>57</v>
@@ -12785,12 +12772,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C232">
         <v>78</v>
@@ -12838,12 +12825,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C233">
         <v>64</v>
@@ -12891,12 +12878,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C234">
         <v>62</v>
@@ -12944,12 +12931,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C235">
         <v>49</v>
@@ -12997,12 +12984,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C236">
         <v>77</v>
@@ -13050,12 +13037,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C237">
         <v>64</v>
@@ -13103,12 +13090,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C238">
         <v>63</v>
@@ -13156,12 +13143,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C239">
         <v>54</v>
@@ -13209,12 +13196,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C240">
         <v>38</v>
@@ -13262,12 +13249,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C241">
         <v>75</v>
@@ -13315,12 +13302,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C242">
         <v>70</v>
@@ -13368,12 +13355,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C243">
         <v>59</v>
@@ -13421,12 +13408,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C244">
         <v>77</v>
@@ -13474,12 +13461,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C245">
         <v>61</v>
@@ -13527,12 +13514,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C246">
         <v>64</v>
@@ -13580,12 +13567,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C247">
         <v>59</v>
@@ -13633,12 +13620,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C248">
         <v>71</v>
@@ -13686,12 +13673,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C249">
         <v>67</v>
@@ -13739,12 +13726,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C250">
         <v>64</v>
@@ -13792,12 +13779,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C251">
         <v>68</v>
@@ -13845,12 +13832,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C252">
         <v>69</v>
@@ -13898,12 +13885,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C253">
         <v>64</v>
@@ -13951,12 +13938,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C254">
         <v>59</v>
@@ -14004,12 +13991,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C255">
         <v>67</v>
@@ -14057,12 +14044,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C256">
         <v>74</v>
@@ -14110,12 +14097,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:17">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C257">
         <v>77</v>
@@ -14163,12 +14150,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:17">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C258">
         <v>60</v>
@@ -14216,12 +14203,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C259">
         <v>64</v>
@@ -14269,12 +14256,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:17">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C260">
         <v>70</v>
@@ -14322,12 +14309,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:17">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C261">
         <v>58</v>
@@ -14375,12 +14362,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C262">
         <v>59</v>
@@ -14428,12 +14415,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C263">
         <v>39</v>
@@ -14481,12 +14468,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:17">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C264">
         <v>67</v>
@@ -14534,12 +14521,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:17">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C265">
         <v>71</v>
@@ -14587,12 +14574,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:17">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C266">
         <v>70</v>
@@ -14640,12 +14627,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:17">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C267">
         <v>60</v>
@@ -14693,12 +14680,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:17">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C268">
         <v>55</v>
@@ -14746,12 +14733,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:17">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C269">
         <v>60</v>
@@ -14799,12 +14786,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:17">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C270">
         <v>55</v>
@@ -14852,12 +14839,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:17">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C271">
         <v>55</v>
@@ -14905,12 +14892,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C272">
         <v>70</v>
@@ -14958,12 +14945,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C273">
         <v>63</v>
@@ -15011,12 +14998,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C274">
         <v>64</v>
@@ -15064,12 +15051,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C275">
         <v>59</v>
@@ -15117,12 +15104,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C276">
         <v>56</v>
@@ -15170,12 +15157,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C277">
         <v>64</v>
@@ -15223,12 +15210,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C278">
         <v>62</v>
@@ -15276,12 +15263,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C279">
         <v>87</v>
@@ -15329,12 +15316,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C280">
         <v>77</v>
@@ -15382,12 +15369,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C281">
         <v>59</v>
@@ -15435,12 +15422,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C282">
         <v>59</v>
@@ -15488,12 +15475,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C283">
         <v>55</v>
@@ -15541,12 +15528,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C284">
         <v>46</v>
@@ -15594,12 +15581,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C285">
         <v>60</v>
@@ -15647,12 +15634,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C286">
         <v>58</v>
@@ -15700,12 +15687,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C287">
         <v>58</v>
@@ -15753,12 +15740,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C288">
         <v>63</v>
@@ -15806,12 +15793,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:17">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C289">
         <v>51</v>
@@ -15859,12 +15846,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:17">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C290">
         <v>61</v>
@@ -15912,12 +15899,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:17">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C291">
         <v>61</v>
@@ -15965,12 +15952,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:17">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C292">
         <v>76</v>
@@ -16018,12 +16005,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:17">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C293">
         <v>71</v>
@@ -16071,12 +16058,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:17">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C294">
         <v>69</v>
@@ -16124,12 +16111,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:17">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C295">
         <v>56</v>
@@ -16177,12 +16164,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:17">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C296">
         <v>67</v>
@@ -16230,12 +16217,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:17">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C297">
         <v>54</v>
@@ -16283,12 +16270,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:17">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C298">
         <v>63</v>
@@ -16336,12 +16323,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:17">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C299">
         <v>47</v>
@@ -16389,12 +16376,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:17">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C300">
         <v>62</v>
@@ -16442,12 +16429,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:17">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C301">
         <v>65</v>
@@ -16495,12 +16482,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:17">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C302">
         <v>63</v>
@@ -16548,12 +16535,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:17">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C303">
         <v>64</v>
@@ -16601,12 +16588,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:17">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C304">
         <v>65</v>
@@ -16654,12 +16641,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:17">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C305">
         <v>51</v>
@@ -16707,12 +16694,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C306">
         <v>56</v>
@@ -16760,12 +16747,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C307">
         <v>70</v>
@@ -16813,12 +16800,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C308">
         <v>58</v>
@@ -16866,12 +16853,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C309">
         <v>67</v>
@@ -16919,12 +16906,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C310">
         <v>62</v>
